--- a/Documents P3/Tracability Link Matrix.xlsx
+++ b/Documents P3/Tracability Link Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunny/Documents/GitHub/cs414-f18-001-stringCheese/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunny/Documents/GitHub/cs414-f18-001-stringCheese/Documents P3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A64855-E685-1447-B25B-6C8924380D9F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A121B3-C96F-B348-9A57-470FB8EB67E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,42 +28,6 @@
     <t>ChessPiece</t>
   </si>
   <si>
-    <t>UC1</t>
-  </si>
-  <si>
-    <t>UC2</t>
-  </si>
-  <si>
-    <t>UC3</t>
-  </si>
-  <si>
-    <t>UC4</t>
-  </si>
-  <si>
-    <t>UC5</t>
-  </si>
-  <si>
-    <t>UC6</t>
-  </si>
-  <si>
-    <t>UC7</t>
-  </si>
-  <si>
-    <t>UC8</t>
-  </si>
-  <si>
-    <t>UC9</t>
-  </si>
-  <si>
-    <t>UC10</t>
-  </si>
-  <si>
-    <t>UC11</t>
-  </si>
-  <si>
-    <t>UC12</t>
-  </si>
-  <si>
     <t>Game</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -81,6 +45,54 @@
   </si>
   <si>
     <t xml:space="preserve">DBconnection </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC1-Register Account</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC2-Create Game</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC3-Create Invitation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC4-Deactivate account</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC5-Join Game</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC6-View Profile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC7-Log on</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC8-Quit game</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC9-List active games</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC10-Take Turn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC11-Update Game State</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC12-Display Valid Moves</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -456,10 +468,13 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
@@ -469,183 +484,183 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
